--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_z4_268.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_z4_268.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1411"/>
+  <dimension ref="A1:N1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.85896897315979</v>
+        <v>1.883185148239136</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006174087524414062</v>
+        <v>0.009630918502807617</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1084399223327637</v>
+        <v>0.2347369194030762</v>
       </c>
     </row>
     <row r="8">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="B1405" t="n">
-        <v>0.001155006954171704</v>
+        <v>0.00115463094512502</v>
       </c>
     </row>
     <row r="1406">
@@ -10381,116 +10381,126 @@
         </is>
       </c>
       <c r="B1406" t="n">
-        <v>47707.86761797032</v>
+        <v>48196.26761797031</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1407" t="n">
-        <v>46</v>
+        <v>0.9972456022959272</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1408" t="n">
-        <v>1121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1409" t="n">
-        <v>8</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1410" t="n">
-        <v>1.020359754562378</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>2.219213008880615</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1411" t="inlineStr">
+      <c r="B1412" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1411" t="inlineStr">
+      <c r="C1412" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1411" t="inlineStr">
+      <c r="D1412" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1411" t="inlineStr">
+      <c r="E1412" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1411" t="inlineStr">
+      <c r="F1412" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1411" t="inlineStr">
+      <c r="G1412" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1411" t="inlineStr">
+      <c r="H1412" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1411" t="inlineStr">
+      <c r="I1412" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1411" t="inlineStr">
+      <c r="J1412" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1411" t="inlineStr">
+      <c r="K1412" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1411" t="inlineStr">
+      <c r="L1412" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1411" t="inlineStr">
+      <c r="M1412" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1411" t="inlineStr">
+      <c r="N1412" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_z4_268.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_z4_268.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.883185148239136</v>
+        <v>0.001661777496337891</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009630918502807617</v>
+        <v>0.0005617141723632812</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2347369194030762</v>
+        <v>0.2209570407867432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (2, 3), (1, 2), (0, 0), (0, 1), (2, 0), (2, 1), (2, 2), (1, 0), (1, 3), (1, 1)]</t>
+          <t>[[0, 2], [2, 3], [1, 2], [0, 0], [0, 1], [2, 0], [2, 1], [2, 2], [1, 0], [1, 3], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 3), (1, 2), (0, 0), (0, 2), (1, 0), (1, 1), (2, 0), (0, 1), (2, 2), (2, 1)]</t>
+          <t>[[0, 3], [1, 3], [1, 2], [0, 0], [0, 2], [1, 0], [1, 1], [2, 0], [0, 1], [2, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (2, 2), (0, 0), (1, 0), (0, 2), (0, 1), (1, 2), (2, 3), (1, 1), (1, 3)]</t>
+          <t>[[0, 3], [3, 1], [2, 2], [0, 0], [1, 0], [0, 2], [0, 1], [1, 2], [2, 3], [1, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (0, 0), (2, 2), (2, 3), (1, 2), (2, 0), (0, 1), (1, 0), (2, 1), (1, 1)]</t>
+          <t>[[0, 3], [3, 1], [0, 0], [2, 2], [2, 3], [1, 2], [2, 0], [0, 1], [1, 0], [2, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (2, 1), (1, 0), (2, 0), (0, 2), (0, 1), (1, 2), (0, 0), (1, 1), (2, 2)]</t>
+          <t>[[0, 3], [3, 1], [2, 1], [1, 0], [2, 0], [0, 2], [0, 1], [1, 2], [0, 0], [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 2), (2, 1), (2, 0), (3, 1), (0, 1), (1, 1), (0, 2), (1, 0), (2, 2), (1, 2)]</t>
+          <t>[[0, 3], [3, 2], [2, 1], [2, 0], [3, 1], [0, 1], [1, 1], [0, 2], [1, 0], [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 3), (2, 1), (0, 2), (0, 0), (1, 1), (1, 0), (2, 0), (1, 2), (0, 1), (2, 2)]</t>
+          <t>[[0, 3], [1, 3], [2, 1], [0, 2], [0, 0], [1, 1], [1, 0], [2, 0], [1, 2], [0, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>[(1, 3), (0, 3), (2, 0), (0, 0), (2, 2), (0, 2), (1, 0), (1, 1), (1, 2), (2, 1), (0, 1)]</t>
+          <t>[[1, 3], [0, 3], [2, 0], [0, 0], [2, 2], [0, 2], [1, 0], [1, 1], [1, 2], [2, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
         </is>
       </c>
       <c r="B1411" t="n">
-        <v>2.219213008880615</v>
+        <v>0.293508768081665</v>
       </c>
     </row>
     <row r="1412">
